--- a/Seminar 3/Homework 3/for_ex_2_and_3.xlsx
+++ b/Seminar 3/Homework 3/for_ex_2_and_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\OneDrive\Рабочий стол\Информатика\4-semester\Seminar 3\Homework 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4EC41-E8C1-40AC-8DE0-D86EC840A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA615C3-917E-4EA3-A6D1-D7FD98938F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4237,37 +4237,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -15780,37 +15750,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -26543,15 +26483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
+      <xdr:colOff>62752</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>394446</xdr:colOff>
+      <xdr:colOff>367552</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:rowOff>80681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26845,7 +26785,7 @@
   <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29691,8 +29631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A86A02-D974-4E81-ADA9-CF0863D48A44}">
   <dimension ref="A1:AB202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AB202"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
